--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4030190.116296999</v>
+        <v>4027896.520840407</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>260.4615563832772</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>95.80443194642525</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>298.730729942234</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917098</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>47.41254713315882</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727864</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>188.2196394312098</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>28.33530928504394</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656052</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936197</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9815576456779</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1182.87310169792</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>813.9105847575083</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>455.6448861507579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2299.246847204926</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1946.478191934812</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1573.012433673732</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1182.87310169792</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,19 +4410,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.6427178510701</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>700.6427178510701</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5260784387343</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>402.6129848563412</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>402.6129848563412</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880306</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510701</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>700.6427178510701</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.6427178510701</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2277.953133796416</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>654.0504646744064</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796416</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796416</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1879.403086337827</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.66971909763</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490879</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926352</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030276</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609169</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077975</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102163</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300937</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1898.673023558145</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1706.987139384971</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1706.987139384971</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1706.987139384971</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1452.302651179084</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1162.885481142124</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>934.8959302441062</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,22 +5513,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>198.0274703142544</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6218,43 +6218,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,49 +6938,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260778999</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864911</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.2652634529499</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>614509.1092426892</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>614509.1092426892</v>
+        <v>614509.1092426893</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605433</v>
+        <v>49110.0927060546</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,22 +26418,22 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312027</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312026</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768981</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768919</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26442,19 +26442,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768956</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768959</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9947.144321768857</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26522,46 +26522,46 @@
         <v>-524578.1965587032</v>
       </c>
       <c r="C6" t="n">
-        <v>420534.9085976641</v>
+        <v>420534.9085976639</v>
       </c>
       <c r="D6" t="n">
-        <v>623973.6502097696</v>
+        <v>623973.6502097697</v>
       </c>
       <c r="E6" t="n">
-        <v>370664.4637369743</v>
+        <v>370629.7258115392</v>
       </c>
       <c r="F6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="G6" t="n">
-        <v>696076.92554433</v>
+        <v>696042.1876188942</v>
       </c>
       <c r="H6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188946</v>
       </c>
       <c r="I6" t="n">
-        <v>696076.9255443299</v>
+        <v>696042.1876188947</v>
       </c>
       <c r="J6" t="n">
-        <v>528471.7477343476</v>
+        <v>528437.0098089118</v>
       </c>
       <c r="K6" t="n">
-        <v>646966.8328382757</v>
+        <v>646932.0949128401</v>
       </c>
       <c r="L6" t="n">
-        <v>696076.9255443303</v>
+        <v>696042.1876188944</v>
       </c>
       <c r="M6" t="n">
-        <v>611021.8976088183</v>
+        <v>610987.1596833826</v>
       </c>
       <c r="N6" t="n">
-        <v>696076.9255443302</v>
+        <v>696042.1876188947</v>
       </c>
       <c r="O6" t="n">
-        <v>696076.92554433</v>
+        <v>696042.1876188945</v>
       </c>
       <c r="P6" t="n">
-        <v>696076.9255443299</v>
+        <v>696042.1876188946</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>67.29070208685766</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>70.50216809837893</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>66.54216182877354</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805519</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>238.7992910724541</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548161</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>222.7020862222437</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>60.59684338500341</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,16 +28093,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,7 +34793,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
